--- a/Project/final_ESG/Tableau/sample data/Tableau_test data.xlsx
+++ b/Project/final_ESG/Tableau/sample data/Tableau_test data.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="기업 상세페이지" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="업종별" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>기업 고유번호</t>
   </si>
@@ -66,12 +67,21 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>업종</t>
+  </si>
+  <si>
+    <t>금융 지원 서비스업</t>
+  </si>
+  <si>
+    <t>제조업</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -93,6 +103,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -163,6 +177,12 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -172,6 +192,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5227,4 +5251,121 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="52.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>